--- a/biology/Zoologie/Coelacanthidae/Coelacanthidae.xlsx
+++ b/biology/Zoologie/Coelacanthidae/Coelacanthidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cœlacanthidés
 Les Coelacanthidae (Cœlacanthidés) sont une famille éteinte de poissons osseux de l'ordre des Coelacanthiformes qui était présente dans les eaux douces et marines du monde entier. Elle est apparue au Permien et s'est éteinte finalement au Jurassique.
@@ -513,7 +525,9 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Axelia (éteint) Stensiö
 Coelacanthus (éteint) Moy-Thomas, 1935; Beltan, 1980; Battail et al., 1987
@@ -549,7 +563,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence WoRMS : Coelacanthidae † Agassiz, 1843 (+ liste espèces)
  Portail de l’ichtyologie                     </t>
